--- a/Code/Results/Cases/Case_8_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.389672796040031</v>
+        <v>2.324556768319496</v>
       </c>
       <c r="C2">
-        <v>0.7131831454499604</v>
+        <v>0.7641742316350815</v>
       </c>
       <c r="D2">
-        <v>0.2117204385840665</v>
+        <v>0.2213415151093585</v>
       </c>
       <c r="E2">
-        <v>0.2004465760868044</v>
+        <v>0.2046996900486491</v>
       </c>
       <c r="F2">
-        <v>0.9098108720632183</v>
+        <v>0.8634566997447877</v>
       </c>
       <c r="G2">
-        <v>0.0008003509382081695</v>
+        <v>0.0005467898256765746</v>
       </c>
       <c r="H2">
-        <v>0.0006646094199755925</v>
+        <v>0.0009619504660511868</v>
       </c>
       <c r="I2">
-        <v>0.001545290811686861</v>
+        <v>0.002250291228563128</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2774493146026842</v>
+        <v>0.2475875179737628</v>
       </c>
       <c r="L2">
-        <v>0.2387737911520418</v>
+        <v>0.1441665334872013</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05502945796782654</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.240095728041652</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8292710168782662</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.963113748099659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8406199352156634</v>
+      </c>
+      <c r="S2">
+        <v>1.820323565378658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.081574742455075</v>
+        <v>2.03159120226087</v>
       </c>
       <c r="C3">
-        <v>0.6224645877583157</v>
+        <v>0.6634670142118182</v>
       </c>
       <c r="D3">
-        <v>0.1890678075323819</v>
+        <v>0.1982012489459635</v>
       </c>
       <c r="E3">
-        <v>0.1790580277118359</v>
+        <v>0.183584154780938</v>
       </c>
       <c r="F3">
-        <v>0.8460155279205992</v>
+        <v>0.8029679013615834</v>
       </c>
       <c r="G3">
-        <v>0.0008035885305869756</v>
+        <v>0.001464503186238232</v>
       </c>
       <c r="H3">
-        <v>0.0001090725397487891</v>
+        <v>0.0002961871157380891</v>
       </c>
       <c r="I3">
-        <v>0.000829819445382185</v>
+        <v>0.001458819692295776</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2756513006965662</v>
+        <v>0.2467953468656319</v>
       </c>
       <c r="L3">
-        <v>0.2132690404564244</v>
+        <v>0.1483357453044505</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05140121242463103</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2154414130034894</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8284816018658461</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.845288011301619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.829939047970079</v>
+      </c>
+      <c r="S3">
+        <v>1.709784260679896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.891682739862659</v>
+        <v>1.850603739880739</v>
       </c>
       <c r="C4">
-        <v>0.5670529041354371</v>
+        <v>0.6020464777191989</v>
       </c>
       <c r="D4">
-        <v>0.1752107882883109</v>
+        <v>0.1840753929148775</v>
       </c>
       <c r="E4">
-        <v>0.1659307419093849</v>
+        <v>0.1706257999281</v>
       </c>
       <c r="F4">
-        <v>0.8073913643450723</v>
+        <v>0.7660760758781961</v>
       </c>
       <c r="G4">
-        <v>0.0008056474884913229</v>
+        <v>0.002277871220351488</v>
       </c>
       <c r="H4">
-        <v>4.563734641305217E-07</v>
+        <v>7.068450426506168E-05</v>
       </c>
       <c r="I4">
-        <v>0.0005729416627326955</v>
+        <v>0.001101054382441014</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2748047470184147</v>
+        <v>0.2464185624641786</v>
       </c>
       <c r="L4">
-        <v>0.1975862033835583</v>
+        <v>0.1509676138007734</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04969096232781389</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2002651594448679</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8287226244834187</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.774507774299764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8241335599776605</v>
+      </c>
+      <c r="S4">
+        <v>1.642515825843191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.812978451340143</v>
+        <v>1.775452920793271</v>
       </c>
       <c r="C5">
-        <v>0.5453170459515775</v>
+        <v>0.577916257971026</v>
       </c>
       <c r="D5">
-        <v>0.1696724469069864</v>
+        <v>0.1784375958377922</v>
       </c>
       <c r="E5">
-        <v>0.1606035145025615</v>
+        <v>0.1653688859988272</v>
       </c>
       <c r="F5">
-        <v>0.7912219819619892</v>
+        <v>0.7505503645796665</v>
       </c>
       <c r="G5">
-        <v>0.0008065093254992472</v>
+        <v>0.002671321636510987</v>
       </c>
       <c r="H5">
-        <v>1.162355350015076E-05</v>
+        <v>2.232091840181916E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005743562813647074</v>
+        <v>0.001059459565075471</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.274205169212145</v>
+        <v>0.2459936709907211</v>
       </c>
       <c r="L5">
-        <v>0.1911627694676667</v>
+        <v>0.1519050441045167</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04905056323718782</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1940455289481378</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8293925471240158</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.744404738780787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.822373823748535</v>
+      </c>
+      <c r="S5">
+        <v>1.613651473439518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.798508362528565</v>
+        <v>1.76158892409606</v>
       </c>
       <c r="C6">
-        <v>0.5426676171141764</v>
+        <v>0.5748982914330441</v>
       </c>
       <c r="D6">
-        <v>0.1688725510638562</v>
+        <v>0.1776243231876578</v>
       </c>
       <c r="E6">
-        <v>0.1597467324241997</v>
+        <v>0.1645247413695792</v>
       </c>
       <c r="F6">
-        <v>0.7878633479709407</v>
+        <v>0.7473062069076661</v>
       </c>
       <c r="G6">
-        <v>0.0008066592510572179</v>
+        <v>0.002743038638264889</v>
       </c>
       <c r="H6">
-        <v>1.689881548649907E-05</v>
+        <v>1.674795704698084E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006614797066983868</v>
+        <v>0.001153536947413158</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2737230615921895</v>
+        <v>0.2455621410113729</v>
       </c>
       <c r="L6">
-        <v>0.1900657405900503</v>
+        <v>0.1518754919528789</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04886303783330348</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1929830147502898</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.829999819757397</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.737438719933465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8226111366129203</v>
+      </c>
+      <c r="S6">
+        <v>1.60692700683407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.886812496761365</v>
+        <v>1.841476614850023</v>
       </c>
       <c r="C7">
-        <v>0.5693765211992741</v>
+        <v>0.601304363919013</v>
       </c>
       <c r="D7">
-        <v>0.175461944667191</v>
+        <v>0.185027897850091</v>
       </c>
       <c r="E7">
-        <v>0.1659353299629664</v>
+        <v>0.1707931635419158</v>
       </c>
       <c r="F7">
-        <v>0.805311105541918</v>
+        <v>0.7602255366920545</v>
       </c>
       <c r="G7">
-        <v>0.0008056743694421276</v>
+        <v>0.002523595013305791</v>
       </c>
       <c r="H7">
-        <v>3.285339515990415E-07</v>
+        <v>6.744434073291394E-05</v>
       </c>
       <c r="I7">
-        <v>0.0007878384748174483</v>
+        <v>0.001348074574631042</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2737418048898732</v>
+        <v>0.2442949295470953</v>
       </c>
       <c r="L7">
-        <v>0.1974180366196876</v>
+        <v>0.1499178125323262</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04913482038550399</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1999277705431268</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8300718552368807</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.768664302104384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8272442393281594</v>
+      </c>
+      <c r="S7">
+        <v>1.625822255301244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.278490108901849</v>
+        <v>2.204120491360072</v>
       </c>
       <c r="C8">
-        <v>0.6853299305370513</v>
+        <v>0.7224872373354003</v>
       </c>
       <c r="D8">
-        <v>0.2043320814507013</v>
+        <v>0.2161288570301139</v>
       </c>
       <c r="E8">
-        <v>0.1931718863996039</v>
+        <v>0.1980610825925879</v>
       </c>
       <c r="F8">
-        <v>0.8852255230437009</v>
+        <v>0.8274796422162751</v>
       </c>
       <c r="G8">
-        <v>0.0008014717141929791</v>
+        <v>0.002290479802707246</v>
       </c>
       <c r="H8">
-        <v>0.0004204407055969916</v>
+        <v>0.0006730589016301636</v>
       </c>
       <c r="I8">
-        <v>0.001514187906098918</v>
+        <v>0.002225877263191123</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2753817886211856</v>
+        <v>0.2423176331519166</v>
       </c>
       <c r="L8">
-        <v>0.2298749485834506</v>
+        <v>0.1433130865074581</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05216532118675943</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2309182525718114</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8306856191857506</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.914939932126515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8447212594235722</v>
+      </c>
+      <c r="S8">
+        <v>1.738674343849567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.048096364383355</v>
+        <v>2.929160658712021</v>
       </c>
       <c r="C9">
-        <v>0.9106757245423012</v>
+        <v>0.9700957318686676</v>
       </c>
       <c r="D9">
-        <v>0.2608537377603852</v>
+        <v>0.2747049804713697</v>
       </c>
       <c r="E9">
-        <v>0.2465759700492782</v>
+        <v>0.2509302826000237</v>
       </c>
       <c r="F9">
-        <v>1.050114636352831</v>
+        <v>0.9787265428721383</v>
       </c>
       <c r="G9">
-        <v>0.0007937578182541184</v>
+        <v>0.001638828078959875</v>
       </c>
       <c r="H9">
-        <v>0.003241983954804906</v>
+        <v>0.003435627041400102</v>
       </c>
       <c r="I9">
-        <v>0.004196955212719011</v>
+        <v>0.00468382632812947</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2826734926439762</v>
+        <v>0.2452089165434401</v>
       </c>
       <c r="L9">
-        <v>0.2936032757539238</v>
+        <v>0.1337809996246158</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06384038606638853</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2922414853781703</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8354151554601117</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.225251869220443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8762789977057679</v>
+      </c>
+      <c r="S9">
+        <v>2.014726739544642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.596087517222827</v>
+        <v>3.417142102840728</v>
       </c>
       <c r="C10">
-        <v>1.072689489959146</v>
+        <v>1.128867371318904</v>
       </c>
       <c r="D10">
-        <v>0.2959998251209299</v>
+        <v>0.315451806112776</v>
       </c>
       <c r="E10">
-        <v>0.2756222133273312</v>
+        <v>0.2804374314708085</v>
       </c>
       <c r="F10">
-        <v>1.157606177252646</v>
+        <v>1.05348849093501</v>
       </c>
       <c r="G10">
-        <v>0.0007885381474047093</v>
+        <v>0.009583456726389272</v>
       </c>
       <c r="H10">
-        <v>0.006679987034826418</v>
+        <v>0.006451778125271534</v>
       </c>
       <c r="I10">
-        <v>0.007351812742362185</v>
+        <v>0.007264592439122808</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2859470351809357</v>
+        <v>0.2389311495219246</v>
       </c>
       <c r="L10">
-        <v>0.3253228291183063</v>
+        <v>0.1239152561400836</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07130087571685451</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3211805240025853</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8488416102739507</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.431608957256572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9214627669071973</v>
+      </c>
+      <c r="S10">
+        <v>2.130184384990315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.726427911094277</v>
+        <v>3.487684363631388</v>
       </c>
       <c r="C11">
-        <v>1.089219675712741</v>
+        <v>1.103310242976931</v>
       </c>
       <c r="D11">
-        <v>0.2544184907411449</v>
+        <v>0.2803680271495494</v>
       </c>
       <c r="E11">
-        <v>0.2058993815799255</v>
+        <v>0.2113719428901462</v>
       </c>
       <c r="F11">
-        <v>1.06438621500557</v>
+        <v>0.9218257525678837</v>
       </c>
       <c r="G11">
-        <v>0.0007872355004047704</v>
+        <v>0.04330337258579675</v>
       </c>
       <c r="H11">
-        <v>0.02508823786302727</v>
+        <v>0.02461194791507637</v>
       </c>
       <c r="I11">
-        <v>0.008743840058187402</v>
+        <v>0.008380020023547097</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2597691123387982</v>
+        <v>0.2050319087702661</v>
       </c>
       <c r="L11">
-        <v>0.2227406625384347</v>
+        <v>0.1090999395421939</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06176038195004097</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.21733397951526</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9060758352067637</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.268938879210594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.0177825929579</v>
+      </c>
+      <c r="S11">
+        <v>1.855568183980097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.725011093294142</v>
+        <v>3.465202308376092</v>
       </c>
       <c r="C12">
-        <v>1.064100724023035</v>
+        <v>1.055817725517045</v>
       </c>
       <c r="D12">
-        <v>0.2145358114994877</v>
+        <v>0.241415731477332</v>
       </c>
       <c r="E12">
-        <v>0.1509900208031496</v>
+        <v>0.1559878732976081</v>
       </c>
       <c r="F12">
-        <v>0.9685240563583335</v>
+        <v>0.8165366342474414</v>
       </c>
       <c r="G12">
-        <v>0.0007871267229142772</v>
+        <v>0.06754259922787043</v>
       </c>
       <c r="H12">
-        <v>0.06324229014083471</v>
+        <v>0.0627230681893991</v>
       </c>
       <c r="I12">
-        <v>0.008850517306746575</v>
+        <v>0.008386619324323163</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2392467924661084</v>
+        <v>0.1844038819090308</v>
       </c>
       <c r="L12">
-        <v>0.149794621593216</v>
+        <v>0.1012509908364176</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05446899319170129</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1448332910658294</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526440407150432</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.099029939124392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.084210928810251</v>
+      </c>
+      <c r="S12">
+        <v>1.655265451797334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.616103737147398</v>
+        <v>3.375500238404811</v>
       </c>
       <c r="C13">
-        <v>1.00986244797474</v>
+        <v>1.00018048484543</v>
       </c>
       <c r="D13">
-        <v>0.1744019866652735</v>
+        <v>0.1971949764536589</v>
       </c>
       <c r="E13">
-        <v>0.1046556332526372</v>
+        <v>0.1083399900022748</v>
       </c>
       <c r="F13">
-        <v>0.8625035637060137</v>
+        <v>0.727883508688187</v>
       </c>
       <c r="G13">
-        <v>0.0007879498460997958</v>
+        <v>0.06151215634339735</v>
       </c>
       <c r="H13">
-        <v>0.1181400736264209</v>
+        <v>0.1177361322793331</v>
       </c>
       <c r="I13">
-        <v>0.008264332566707111</v>
+        <v>0.00794465615151374</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2201919886015844</v>
+        <v>0.17210856656963</v>
       </c>
       <c r="L13">
-        <v>0.09549707474404201</v>
+        <v>0.09740029638372505</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04872692499414732</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09207165615662305</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9949551817083346</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.905421876826637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.123563187231625</v>
+      </c>
+      <c r="S13">
+        <v>1.507680217725039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.490481908497543</v>
+        <v>3.280559524025875</v>
       </c>
       <c r="C14">
-        <v>0.9598232706318015</v>
+        <v>0.9576972784400652</v>
       </c>
       <c r="D14">
-        <v>0.1469564473051861</v>
+        <v>0.1652763735844047</v>
       </c>
       <c r="E14">
-        <v>0.07774094430628864</v>
+        <v>0.08037719802881327</v>
       </c>
       <c r="F14">
-        <v>0.7843450077651823</v>
+        <v>0.6716868738760979</v>
       </c>
       <c r="G14">
-        <v>0.0007889460061454096</v>
+        <v>0.04473024013103455</v>
       </c>
       <c r="H14">
-        <v>0.1667922479739445</v>
+        <v>0.1665210074378933</v>
       </c>
       <c r="I14">
-        <v>0.007640216065304628</v>
+        <v>0.007529771615088166</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2074789905304861</v>
+        <v>0.1665278805983235</v>
       </c>
       <c r="L14">
-        <v>0.068869866416577</v>
+        <v>0.09611601571797834</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04525362106550901</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06673070148636739</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.023212415290644</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.759541690355746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.13878437605949</v>
+      </c>
+      <c r="S14">
+        <v>1.422914203091324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.435876637377419</v>
+        <v>3.240863569534667</v>
       </c>
       <c r="C15">
-        <v>0.9425974432890314</v>
+        <v>0.9458513281800549</v>
       </c>
       <c r="D15">
-        <v>0.1399621031724649</v>
+        <v>0.1565486451849551</v>
       </c>
       <c r="E15">
-        <v>0.07176545560998449</v>
+        <v>0.07411337013586738</v>
       </c>
       <c r="F15">
-        <v>0.7623966312696666</v>
+        <v>0.6592473732905404</v>
       </c>
       <c r="G15">
-        <v>0.0007894038402781828</v>
+        <v>0.03627065902380977</v>
       </c>
       <c r="H15">
-        <v>0.1790169525731216</v>
+        <v>0.1788044456908864</v>
       </c>
       <c r="I15">
-        <v>0.007448753795582519</v>
+        <v>0.007454540528478937</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2043248591734823</v>
+        <v>0.1661775888490133</v>
       </c>
       <c r="L15">
-        <v>0.0637813296476164</v>
+        <v>0.09632613772947529</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0444946409089404</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06205116784558484</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.029366060737814</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.717167993015721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.137139648332294</v>
+      </c>
+      <c r="S15">
+        <v>1.407793101454274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.222445468773856</v>
+        <v>3.089493508527426</v>
       </c>
       <c r="C16">
-        <v>0.8867474765559109</v>
+        <v>0.9188994556022294</v>
       </c>
       <c r="D16">
-        <v>0.1343155572294989</v>
+        <v>0.1452116268539356</v>
       </c>
       <c r="E16">
-        <v>0.07017902208687765</v>
+        <v>0.0721309140256654</v>
       </c>
       <c r="F16">
-        <v>0.7386861673272449</v>
+        <v>0.6712191363475739</v>
       </c>
       <c r="G16">
-        <v>0.0007914618298277065</v>
+        <v>0.008053535006352419</v>
       </c>
       <c r="H16">
-        <v>0.1649995381221743</v>
+        <v>0.1650183564744481</v>
       </c>
       <c r="I16">
-        <v>0.006284480539586745</v>
+        <v>0.006688849608726066</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2061899174141253</v>
+        <v>0.1770299858952953</v>
       </c>
       <c r="L16">
-        <v>0.06295680911802748</v>
+        <v>0.1020025857558178</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04567120827990223</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06231196418227647</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.012884248242074</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.667166486306655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.08259464373738</v>
+      </c>
+      <c r="S16">
+        <v>1.4628311357217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.125244698257234</v>
+        <v>3.016657138939081</v>
       </c>
       <c r="C17">
-        <v>0.8704841374973</v>
+        <v>0.9165442272646374</v>
       </c>
       <c r="D17">
-        <v>0.1441006142875665</v>
+        <v>0.1532404271809327</v>
       </c>
       <c r="E17">
-        <v>0.08210356217943726</v>
+        <v>0.08416673804149966</v>
       </c>
       <c r="F17">
-        <v>0.7613777210969914</v>
+        <v>0.7069396268659389</v>
       </c>
       <c r="G17">
-        <v>0.0007925200174963653</v>
+        <v>0.002096795354300518</v>
       </c>
       <c r="H17">
-        <v>0.1266096065564568</v>
+        <v>0.1267166205298196</v>
       </c>
       <c r="I17">
-        <v>0.005755521898993088</v>
+        <v>0.006331256487441372</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2142841649777161</v>
+        <v>0.1877564867886399</v>
       </c>
       <c r="L17">
-        <v>0.07435673840091539</v>
+        <v>0.107172406991916</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04794942820174519</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07405790719662519</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9856225002659329</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.705496205183721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.038755718858653</v>
+      </c>
+      <c r="S17">
+        <v>1.540335795073815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.119485285843325</v>
+        <v>3.016147570845646</v>
       </c>
       <c r="C18">
-        <v>0.8841767109259422</v>
+        <v>0.9397429696557822</v>
       </c>
       <c r="D18">
-        <v>0.1697992657604601</v>
+        <v>0.1790169996772306</v>
       </c>
       <c r="E18">
-        <v>0.1121368612386391</v>
+        <v>0.1145469942292223</v>
       </c>
       <c r="F18">
-        <v>0.8295635952831475</v>
+        <v>0.7771484587793935</v>
       </c>
       <c r="G18">
-        <v>0.0007927764235348789</v>
+        <v>0.0007619006289423247</v>
       </c>
       <c r="H18">
-        <v>0.0737603491884613</v>
+        <v>0.07389618019967514</v>
       </c>
       <c r="I18">
-        <v>0.005409770029962679</v>
+        <v>0.005989584495245559</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2297214279785784</v>
+        <v>0.2022829912055961</v>
       </c>
       <c r="L18">
-        <v>0.1076308573796041</v>
+        <v>0.1133869366762816</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05245827943356041</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1072489561124073</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9457235153282824</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.829919835776963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9922193059075113</v>
+      </c>
+      <c r="S18">
+        <v>1.671809929490479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.18013392200487</v>
+        <v>3.070665200363351</v>
       </c>
       <c r="C19">
-        <v>0.9261415685316763</v>
+        <v>0.9900187866497276</v>
       </c>
       <c r="D19">
-        <v>0.2097294091391717</v>
+        <v>0.2201517778317736</v>
       </c>
       <c r="E19">
-        <v>0.1625967576413174</v>
+        <v>0.1655039519297148</v>
       </c>
       <c r="F19">
-        <v>0.929798301550619</v>
+        <v>0.872913975062886</v>
       </c>
       <c r="G19">
-        <v>0.000792334006594831</v>
+        <v>0.0005673327785458149</v>
       </c>
       <c r="H19">
-        <v>0.02914490866256614</v>
+        <v>0.02927546054802121</v>
       </c>
       <c r="I19">
-        <v>0.005727826368480571</v>
+        <v>0.006303565381143628</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2490765305836362</v>
+        <v>0.2186424973310146</v>
       </c>
       <c r="L19">
-        <v>0.1712524933966009</v>
+        <v>0.1198488464622365</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05840163874414372</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1704281774550509</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9038884189925511</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.010204126988981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9495011335122001</v>
+      </c>
+      <c r="S19">
+        <v>1.840619508460122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.439601814940602</v>
+        <v>3.293291435984884</v>
       </c>
       <c r="C20">
-        <v>1.038080594767024</v>
+        <v>1.10704131648248</v>
       </c>
       <c r="D20">
-        <v>0.2874865024964777</v>
+        <v>0.3028802329981772</v>
       </c>
       <c r="E20">
-        <v>0.2677909561507619</v>
+        <v>0.2718958533034339</v>
       </c>
       <c r="F20">
-        <v>1.122624223505639</v>
+        <v>1.041120735215742</v>
       </c>
       <c r="G20">
-        <v>0.0007899324383078546</v>
+        <v>0.002816489225483387</v>
       </c>
       <c r="H20">
-        <v>0.005633598583255406</v>
+        <v>0.005590469514352936</v>
       </c>
       <c r="I20">
-        <v>0.007105214768009738</v>
+        <v>0.007415777421960534</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2816099888358998</v>
+        <v>0.241347490479523</v>
       </c>
       <c r="L20">
-        <v>0.3160978792918172</v>
+        <v>0.1267173293002131</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06955775205449655</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3133273271197083</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8499267467648508</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.35850986598453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9073812016422238</v>
+      </c>
+      <c r="S20">
+        <v>2.121337726623466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.881572180339731</v>
+        <v>3.59972266054109</v>
       </c>
       <c r="C21">
-        <v>1.172493414304654</v>
+        <v>1.178596863470091</v>
       </c>
       <c r="D21">
-        <v>0.3251893006727471</v>
+        <v>0.3596963849294923</v>
       </c>
       <c r="E21">
-        <v>0.3062773029583923</v>
+        <v>0.3142058785795925</v>
       </c>
       <c r="F21">
-        <v>1.233083339574421</v>
+        <v>1.052442021912626</v>
       </c>
       <c r="G21">
-        <v>0.0007858260537894657</v>
+        <v>0.06464273668923681</v>
       </c>
       <c r="H21">
-        <v>0.008901871525133748</v>
+        <v>0.008122617655149378</v>
       </c>
       <c r="I21">
-        <v>0.009911493216573142</v>
+        <v>0.009279609691654755</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2902117937438931</v>
+        <v>0.2220131599668882</v>
       </c>
       <c r="L21">
-        <v>0.364064942273302</v>
+        <v>0.1145705576119891</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06959405677590169</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3555972311379918</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8528441679763574</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.569409605690652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9752576384794622</v>
+      </c>
+      <c r="S21">
+        <v>2.053628323724809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.168792565282104</v>
+        <v>3.790166172504598</v>
       </c>
       <c r="C22">
-        <v>1.253819692578645</v>
+        <v>1.213277292499811</v>
       </c>
       <c r="D22">
-        <v>0.3459654004377626</v>
+        <v>0.3946704487680677</v>
       </c>
       <c r="E22">
-        <v>0.326094642587222</v>
+        <v>0.3369211135449035</v>
       </c>
       <c r="F22">
-        <v>1.300295652842223</v>
+        <v>1.049461308580575</v>
       </c>
       <c r="G22">
-        <v>0.000783242275301271</v>
+        <v>0.1543396538037527</v>
       </c>
       <c r="H22">
-        <v>0.01133649550595861</v>
+        <v>0.009960463081200903</v>
       </c>
       <c r="I22">
-        <v>0.01171617773821598</v>
+        <v>0.01027414126536375</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2959542800798971</v>
+        <v>0.2085482479645506</v>
       </c>
       <c r="L22">
-        <v>0.3878717119704476</v>
+        <v>0.1069666863637053</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06909240284229057</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3754643288305743</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8562363446835519</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.702019895251652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.027103746406084</v>
+      </c>
+      <c r="S22">
+        <v>1.991081183900747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.020194495705141</v>
+        <v>3.705177951529834</v>
       </c>
       <c r="C23">
-        <v>1.207165412734355</v>
+        <v>1.200022682835424</v>
       </c>
       <c r="D23">
-        <v>0.3344705592321304</v>
+        <v>0.3734370774173783</v>
       </c>
       <c r="E23">
-        <v>0.3154154913158536</v>
+        <v>0.3241864666279284</v>
       </c>
       <c r="F23">
-        <v>1.266546106342076</v>
+        <v>1.062782387999263</v>
       </c>
       <c r="G23">
-        <v>0.00078460247393619</v>
+        <v>0.08822024229042569</v>
       </c>
       <c r="H23">
-        <v>0.01001419141796738</v>
+        <v>0.008998045843645761</v>
       </c>
       <c r="I23">
-        <v>0.01047263582385405</v>
+        <v>0.009446279288404469</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2940806876651649</v>
+        <v>0.2192012463362865</v>
       </c>
       <c r="L23">
-        <v>0.3752547206724586</v>
+        <v>0.1121037056161835</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07087688901865974</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3653925553534947</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8525323814972694</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.637441145839318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9909490097259948</v>
+      </c>
+      <c r="S23">
+        <v>2.056953333171663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.449560264261379</v>
+        <v>3.303222768210048</v>
       </c>
       <c r="C24">
-        <v>1.036629414888836</v>
+        <v>1.106685773651009</v>
       </c>
       <c r="D24">
-        <v>0.2917888491577969</v>
+        <v>0.307209018176934</v>
       </c>
       <c r="E24">
-        <v>0.2752842620894356</v>
+        <v>0.2794243165278942</v>
       </c>
       <c r="F24">
-        <v>1.137173207312003</v>
+        <v>1.055545571818584</v>
       </c>
       <c r="G24">
-        <v>0.0007898815336435281</v>
+        <v>0.002655278992036436</v>
       </c>
       <c r="H24">
-        <v>0.005660555536318834</v>
+        <v>0.005615655163379918</v>
       </c>
       <c r="I24">
-        <v>0.006695633244321542</v>
+        <v>0.006905372621883288</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2858180069863678</v>
+        <v>0.2451273506166274</v>
       </c>
       <c r="L24">
-        <v>0.3274833690460923</v>
+        <v>0.1281955883340515</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07093243930925652</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.324669080162181</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8431114008067624</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.388005803946754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8996311302490483</v>
+      </c>
+      <c r="S24">
+        <v>2.150503517444804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.833371449625076</v>
+        <v>2.733423464007217</v>
       </c>
       <c r="C25">
-        <v>0.8541919943200469</v>
+        <v>0.9122407840680182</v>
       </c>
       <c r="D25">
-        <v>0.246095865332876</v>
+        <v>0.2583652845580247</v>
       </c>
       <c r="E25">
-        <v>0.2322430478736521</v>
+        <v>0.2365153714773953</v>
       </c>
       <c r="F25">
-        <v>1.001534981966458</v>
+        <v>0.9396786151234267</v>
       </c>
       <c r="G25">
-        <v>0.0007958111267290268</v>
+        <v>0.0006551099287426254</v>
       </c>
       <c r="H25">
-        <v>0.002236322250866341</v>
+        <v>0.002510802001852386</v>
       </c>
       <c r="I25">
-        <v>0.003648769605587354</v>
+        <v>0.004353100467407778</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2785521795567156</v>
+        <v>0.2441592889090067</v>
       </c>
       <c r="L25">
-        <v>0.2762048356043323</v>
+        <v>0.1362383995055083</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06017441145597502</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.275769836368994</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8360783540500307</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.129786774157537</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8672253926168167</v>
+      </c>
+      <c r="S25">
+        <v>1.945524517978299</v>
       </c>
     </row>
   </sheetData>
